--- a/マトリクス表（機能要件画面要件）.xlsx
+++ b/マトリクス表（機能要件画面要件）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakagawadaigou/git/masatake-nakagawa-educure-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011B2467-B1D6-C344-8790-D52CBF0F92D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2347C986-5ECF-0A4D-A97D-367627B40102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="17060" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6640" yWindow="980" windowWidth="23500" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="127">
   <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
@@ -1151,35 +1151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントの出欠者リストを表示する。</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">シュッケツ </t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>sy</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント出欠回答一覧画面（管理者のみ）</t>
-    <rPh sb="4" eb="8">
-      <t>シュッケツカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>カンリセィア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニュー画面</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1319,10 +1290,6 @@
   </si>
   <si>
     <t>20,イベント出欠回答画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>23,管理者用「スケジュール表示」画面</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1808,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A6" zoomScale="75" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -2021,7 +1988,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
@@ -2045,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
@@ -2069,7 +2036,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
@@ -2221,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="20"/>
@@ -2307,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -2327,7 +2294,7 @@
         <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="59" customHeight="1">
@@ -2341,7 +2308,7 @@
         <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="59" customHeight="1">
@@ -2355,7 +2322,7 @@
         <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="59" customHeight="1">
@@ -2369,7 +2336,7 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="59" customHeight="1">
@@ -2383,7 +2350,7 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="59" customHeight="1">
@@ -2394,10 +2361,10 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="59" customHeight="1">
@@ -2411,7 +2378,7 @@
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="59" customHeight="1">
@@ -2425,7 +2392,7 @@
         <v>90</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="59" customHeight="1">
@@ -2439,7 +2406,7 @@
         <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="59" customHeight="1">
@@ -2453,7 +2420,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="59" customHeight="1">
@@ -2467,7 +2434,7 @@
         <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="59" customHeight="1">
@@ -2495,7 +2462,7 @@
         <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="59" customHeight="1">
@@ -2509,7 +2476,7 @@
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="59" customHeight="1">
@@ -2523,7 +2490,7 @@
         <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="59" customHeight="1">
@@ -2537,7 +2504,7 @@
         <v>102</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="59" customHeight="1">
@@ -2551,7 +2518,7 @@
         <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="59" customHeight="1">
@@ -2559,13 +2526,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>123</v>
+        <v>100</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="59" customHeight="1">
@@ -2573,13 +2540,13 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="59" customHeight="1">
@@ -2587,13 +2554,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>125</v>
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="59" customHeight="1">
@@ -2601,13 +2568,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="59" customHeight="1">
@@ -2615,13 +2582,13 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="59" customHeight="1">
@@ -2629,13 +2596,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="59" customHeight="1">
@@ -2643,13 +2610,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="59" customHeight="1">
@@ -2657,10 +2624,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
         <v>85</v>
@@ -2671,31 +2638,17 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="59" customHeight="1">
-      <c r="A34" s="1">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="59" customHeight="1"/>
-    <row r="36" spans="1:4" ht="61" customHeight="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="59" customHeight="1"/>
+    <row r="35" spans="1:4" ht="61" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
